--- a/biology/Mycologie/Hemileia_vastatrix/Hemileia_vastatrix.xlsx
+++ b/biology/Mycologie/Hemileia_vastatrix/Hemileia_vastatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemileia vastatrix est une espèce de champignons basidiomycètes de l'ordre des Pucciniales, originaire d'Afrique orientale.
 C'est un champignon phytopathogène, responsable de la rouille orangée du caféier, maladie fongique qui a colonisé toutes les régions caféières du monde, à l'exception des îles Hawaï.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mycélium avec des urédies a un aspect jaune-orangé et poudreux et apparaît à la face inférieure des feuilles sous la forme de points d'environ 0,1 mm de diamètre. Les jeunes lésions apparaissent comme des taches jaune clair ou chlorotiques de quelques millimètres de diamètre, les plus âgées atteignant quelques centimètres de diamètre. Les hyphes sont en forme de massue avec des pointes portant de nombreux pédicelles sur lesquels apparaissent des grappes d'urédospores.
 Les téleutospores (ou téliospores), jaune clair, apparaissent souvent dans des urédies ; les téliospores sont plus ou moins sphériques à limoniformes, de 26 à 40 sur 20 à 30 µm de diamètre, aux parois hyalines à jaunâtre, lisses, de 1 µm d'épaisseur, plus épaisses à l'apex, pédoncule hyalin.
@@ -545,9 +559,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemileia vastatrixa une aire de répartition pantropicale et est présente dans la quasi-totalité des régions dans lesquelles se cultive le caféier Hemileia vastatrix, c'est-à-dire en Afrique, dans les Amériques, en Asie et en  Océanie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemileia vastatrixa une aire de répartition pantropicale et est présente dans la quasi-totalité des régions dans lesquelles se cultive le caféier Hemileia vastatrix, c'est-à-dire en Afrique, dans les Amériques, en Asie et en  Océanie.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Outils technologiques pour le diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2020, des outils technologiques ont été développés pour le diagnostic précoce de la rouille. La méthode consiste à utiliser des réseaux
-de capteurs sans fil, des techniques de télédétection et d'apprentissage approfondi pour détecter les premiers stades de la rouille[3].
+de capteurs sans fil, des techniques de télédétection et d'apprentissage approfondi pour détecter les premiers stades de la rouille.
 </t>
         </is>
       </c>
@@ -610,11 +628,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (23 février 2015)[1] :
-Wardia vastatrix J.F. Hennen &amp; M.M. Hennen 2003.
-Liste des non-classés
-Selon NCBI  (23 février 2015)[4] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (23 février 2015) :
+Wardia vastatrix J.F. Hennen &amp; M.M. Hennen 2003.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hemileia_vastatrix</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemileia_vastatrix</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des non-classés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (23 février 2015) :
 non-classé Hemileia vastatrix HvCat</t>
         </is>
       </c>
